--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_6.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999891665033092</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991271249823784</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999841680119487</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999986970364294</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999986243187474</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G2" t="n">
-        <v>1.011259362531215e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008147905141647129</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I2" t="n">
-        <v>1.310277835139167e-05</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>9.862800578277972e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>1.148278946483482e-05</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000293606116945934</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003180030444085739</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00026000392058</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003315410923660986</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P2" t="n">
-        <v>73.00345803449605</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.4753536562011</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_1</t>
+          <t>model_6_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999924729706073</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991092615347996</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999887288922629</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999761726313509</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999836082780703</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G3" t="n">
-        <v>7.026151539689322e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008314652583647276</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I3" t="n">
-        <v>9.328128973779555e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.803615930577492e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>1.368214413977724e-05</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002812271185429285</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002650688880213844</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000180648705424</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002763534193526966</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P3" t="n">
-        <v>73.7317428718749</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q3" t="n">
-        <v>104.2036384935799</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_2</t>
+          <t>model_6_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999936706060926</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991029173157782</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999913826851717</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999790091917047</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999862100890669</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G4" t="n">
-        <v>5.908211384272315e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008373873083422871</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I4" t="n">
-        <v>7.131812240726601e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.588902106423772e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>1.151041665248216e-05</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002584721793674288</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002430681259291789</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000151905453778</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0025341603927037</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P4" t="n">
-        <v>74.07833482921356</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q4" t="n">
-        <v>104.5502304509186</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_3</t>
+          <t>model_6_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999994144239212</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990979373698552</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999919766571419</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999978890116167</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999864505623036</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G5" t="n">
-        <v>5.466095657437818e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008420358692669514</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I5" t="n">
-        <v>6.640232595316638e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.597915545545575e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>1.130969402538619e-05</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002421555712260946</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002337968275541355</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000140538258913</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002437500425292676</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P5" t="n">
-        <v>74.23389194033106</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.7057875620361</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_4</t>
+          <t>model_6_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999965826400775</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990652830893663</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999958897210706</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999830951099454</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999902971511374</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G6" t="n">
-        <v>3.189955482834814e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008725172067462137</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I6" t="n">
-        <v>3.401725266583879e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.279617966050244e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>8.09895246354316e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001656514990654233</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001786044647491998</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00008201663814</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001862080265757842</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P6" t="n">
-        <v>75.31100719297818</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.7829028146832</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_5</t>
+          <t>model_6_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999963890397361</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990557671723813</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999949396730728</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999800395235797</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999884406701067</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G7" t="n">
-        <v>3.370672903565757e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008813998975510875</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I7" t="n">
-        <v>4.18799849378814e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.510910994145e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>9.648554217619071e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001353322968723603</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001835939242885166</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000086663046334</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001914098977372949</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P7" t="n">
-        <v>75.20079631776748</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q7" t="n">
-        <v>105.6726919394725</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_6</t>
+          <t>model_6_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999965009533156</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990541443548525</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999949856770812</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999804713227218</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999886592667405</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G8" t="n">
-        <v>3.266206489464844e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008829147264808623</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I8" t="n">
-        <v>4.149924922486915e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.478225898995663e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>9.466091956221773e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001298375378356504</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001807264919557961</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000083977120426</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001884203928737673</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P8" t="n">
-        <v>75.26376268290207</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q8" t="n">
-        <v>105.7356583046071</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_7</t>
+          <t>model_6_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999968243840909</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990473915846637</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999943599773462</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999983151508642</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999895643435907</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G9" t="n">
-        <v>2.964298057786435e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008892181410397112</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I9" t="n">
-        <v>4.667762917054916e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.275348858994245e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>8.710625753498683e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001280637569550114</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001721713697972585</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000076214781819</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001795010614533965</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P9" t="n">
-        <v>75.45774059255804</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q9" t="n">
-        <v>105.9296362142631</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_8</t>
+          <t>model_6_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999966146659868</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990450791518873</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999939267896445</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999810470416518</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999883953635991</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G10" t="n">
-        <v>3.160060702404259e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008913766955324182</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I10" t="n">
-        <v>5.026275216478984e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.434646775805404e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>9.686371487266514e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001145284630263008</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00177765595726627</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000081248016317</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001853334451622223</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32983864185671</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q10" t="n">
-        <v>105.8017342635617</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_9</t>
+          <t>model_6_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999968161913169</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990425619054021</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999942325156468</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999819758123614</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999889680599405</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G11" t="n">
-        <v>2.971945652637891e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008937264346320155</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I11" t="n">
-        <v>4.773252031283085e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.364343349851044e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>9.208342764896765e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001031138310408491</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001723933192626063</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000076411408395</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001797324597669829</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P11" t="n">
-        <v>75.45258743547393</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.9244830571789</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_10</t>
+          <t>model_6_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999996892690232</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990412957727199</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999944182935142</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999822955055002</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999892051183562</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G12" t="n">
-        <v>2.900537273332887e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008949083139140131</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I12" t="n">
-        <v>4.619499627542847e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.340144133955523e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>9.010470483549038e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>9.869406397755241e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001703096378169153</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000074575434433</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001775600716883336</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P12" t="n">
-        <v>75.50122914293016</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.9731247646352</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_11</t>
+          <t>model_6_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999967919902574</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990406653048608</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999941900887339</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999817405324423</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999888403440064</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G13" t="n">
-        <v>2.99453627939216e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008954968279862119</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I13" t="n">
-        <v>4.808365147475336e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.382152895518135e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>9.314947051328345e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>9.752637732807413e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001730472848498976</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000076992233823</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001804142660232206</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P13" t="n">
-        <v>75.43744233994622</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.9093379616512</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999970725560802</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990394068515092</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999949402501676</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999830739326326</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999898168424373</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G14" t="n">
-        <v>2.732640399277116e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008966715389502224</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I14" t="n">
-        <v>4.18752088200537e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.281220985639742e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>8.499865369201395e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>9.281458687633068e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001653069992249909</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000070258654076</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001723444604146615</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P14" t="n">
-        <v>75.62048447392297</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.092380095628</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_13</t>
+          <t>model_6_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999973949053491</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990381553521603</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999956763350271</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999847488484863</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999990941215103</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G15" t="n">
-        <v>2.431741506174927e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00089783975865783</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I15" t="n">
-        <v>3.578326589325207e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.154438000892105e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>7.561353299123129e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>8.743704812813e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001559404215133115</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000062522271621</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00162579128098307</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P15" t="n">
-        <v>75.85380577617755</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.3257013978826</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_14</t>
+          <t>model_6_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999975270967278</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990377599229198</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999961400354531</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999852589354543</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999914023853222</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G16" t="n">
-        <v>2.30834665665337e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008982088744966079</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I16" t="n">
-        <v>3.194561525544364e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.115826898040386e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>7.176415252974111e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>8.455153307531204e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001519324407969993</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000059349678532</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001584005193452376</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P16" t="n">
-        <v>75.9579580454805</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.4298536671855</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_15</t>
+          <t>model_6_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999975907234516</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990375180828253</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999962890469045</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999855826362299</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999916230337256</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G17" t="n">
-        <v>2.248953902873815e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000898434621609261</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I17" t="n">
-        <v>3.071237530280923e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.091324323537382e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>6.992240382827371e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>8.305425344600478e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001499651260418173</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000057822637161</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001563494519280245</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P17" t="n">
-        <v>76.0100907638369</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q17" t="n">
-        <v>106.4819863855419</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_16</t>
+          <t>model_6_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999978359270053</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999037182670785</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999969777140213</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999867169807191</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999924787885112</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G18" t="n">
-        <v>2.020067148759534e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008987477140259477</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I18" t="n">
-        <v>2.501286835557925e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.00545996220102e-05</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>6.277943228784062e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>7.811445860021147e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001421290663010045</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000051937751873</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001481797949011654</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P18" t="n">
-        <v>76.22475961028699</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.696655231992</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_17</t>
+          <t>model_6_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999978857590226</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999036555138111</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999970371946373</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999870334328541</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999926517646893</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97355114792544e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008993334882316996</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I19" t="n">
-        <v>2.452059832337325e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>9.815060745367295e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>6.133560288852311e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>7.730264610557845e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001404831359247593</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000050741783458</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001464637938612579</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P19" t="n">
-        <v>76.27135204962303</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q19" t="n">
-        <v>106.743247671328</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_18</t>
+          <t>model_6_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999980807481625</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990355074826609</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999973216120381</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999882242670824</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999933327241093</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G20" t="n">
-        <v>1.791537344878696e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009003114286074938</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I20" t="n">
-        <v>2.216671948547732e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>8.913657146573064e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>5.565164547560399e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>7.439722169307148e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001338483225475275</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000046062044099</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001395465227426002</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P20" t="n">
-        <v>76.46487290965264</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q20" t="n">
-        <v>106.9367685313577</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_19</t>
+          <t>model_6_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999982300547515</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990346277648793</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999976443972202</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999890195958913</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999938533713457</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G21" t="n">
-        <v>1.652166197882482e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009011326065415711</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I21" t="n">
-        <v>1.949530343765007e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>8.311631916337759e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>5.130581130051383e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>7.098231454533935e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001285366172684843</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000042478685963</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001340086871730824</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P21" t="n">
-        <v>76.62684656776131</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.0987421894663</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_20</t>
+          <t>model_6_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999983337539495</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990341924298267</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999979322558424</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999895013339105</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999942145126497</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G22" t="n">
-        <v>1.555367548338275e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009015389727041381</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I22" t="n">
-        <v>1.711294456270433e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>7.946979663434073e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>4.829137059852252e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>6.812362417418616e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001247143756083586</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000039989905211</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001300237247723541</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P22" t="n">
-        <v>76.74759734954429</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.2194929712493</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_21</t>
+          <t>model_6_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999983262397248</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990340826352099</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999979517811045</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999894206462124</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999941876063571</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G23" t="n">
-        <v>1.562381747257761e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009016414611594955</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I23" t="n">
-        <v>1.695135071845513e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>8.008056326898258e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>4.851595699371886e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>6.784971836896611e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001249952698008113</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000040170246604</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001303165772121107</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P23" t="n">
-        <v>76.73859827990979</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.2104939016148</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_22</t>
+          <t>model_6_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999983563945115</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990338476088999</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999980396973733</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999895553924303</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999942922891304</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G24" t="n">
-        <v>1.534233577543688e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009018608479033662</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I24" t="n">
-        <v>1.62237431810071e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>7.90605999292981e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>4.764217155515259e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>6.661831930215255e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001238641827787068</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000039446531724</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001291373374738023</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P24" t="n">
-        <v>76.77495919926604</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.2468548209711</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_24</t>
+          <t>model_6_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999984035968478</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990338258717056</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999981546760556</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999897919771118</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999944565646871</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G25" t="n">
-        <v>1.490172268563138e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009018811386200921</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I25" t="n">
-        <v>1.527216326380896e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>7.726976894473968e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>4.627096610427433e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>6.536585104053669e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001220726123486811</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000038313675653</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001272694961815084</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P25" t="n">
-        <v>76.8332376564093</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3051332781143</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_23</t>
+          <t>model_6_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999984066532284</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990335339967629</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999981390800794</v>
+        <v>0.999963735509305</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999898330275688</v>
+        <v>0.9999954468363915</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999944674463109</v>
+        <v>0.9999748712582449</v>
       </c>
       <c r="G26" t="n">
-        <v>1.487319271463858e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009021535910673026</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I26" t="n">
-        <v>1.540123777950414e-06</v>
+        <v>1.74263632936475e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>7.695903694924072e-06</v>
+        <v>3.328705626383837e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>4.618013736437244e-06</v>
+        <v>8.879616928142945e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>6.571283041627422e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001219556998038164</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000038240322519</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001271476064275664</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P26" t="n">
-        <v>76.83707041016737</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.3089660318724</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
   </sheetData>
